--- a/output/Pump_Master.xlsx
+++ b/output/Pump_Master.xlsx
@@ -454,7 +454,7 @@
         <v>Uttar Tajpur Water Supply Scheme</v>
       </c>
       <c r="G2" s="1" t="str">
-        <v>N/A / Uttar Tajpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H2" s="1" t="str">
         <v>22.939712</v>
@@ -483,7 +483,7 @@
         <v>Uttar Tajpur Water Supply Scheme</v>
       </c>
       <c r="G3" s="1" t="str">
-        <v>N/A / Uttar Tajpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H3" s="1" t="str">
         <v>23.940463</v>
@@ -512,7 +512,7 @@
         <v>Anandapur Water Supply Scheme</v>
       </c>
       <c r="G4" s="1" t="str">
-        <v>N/A / Anandapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H4" s="1" t="str">
         <v>23.951715</v>
@@ -541,7 +541,7 @@
         <v>Anandapur Water Supply Scheme</v>
       </c>
       <c r="G5" s="1" t="str">
-        <v>N/A / Anandapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H5" s="1" t="str">
         <v>23.9530321</v>
@@ -570,7 +570,7 @@
         <v>Andharkota Water Supply Scheme</v>
       </c>
       <c r="G6" s="1" t="str">
-        <v>N/A / Andharkota Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H6" s="1" t="str">
         <v>24.0368566666666</v>
@@ -599,7 +599,7 @@
         <v>Andharkota Water Supply Scheme</v>
       </c>
       <c r="G7" s="1" t="str">
-        <v>N/A / Andharkota Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H7" s="1" t="str">
         <v>24.0353005</v>
@@ -628,7 +628,7 @@
         <v>Arabpur Water Supply Scheme</v>
       </c>
       <c r="G8" s="1" t="str">
-        <v>N/A / Arabpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H8" s="1" t="str">
         <v>23.991975</v>
@@ -657,7 +657,7 @@
         <v>Arabpur Water Supply Scheme</v>
       </c>
       <c r="G9" s="1" t="str">
-        <v>N/A / Arabpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H9" s="1" t="str">
         <v>23.995347</v>
@@ -686,7 +686,7 @@
         <v>Baruipara Water Supply Scheme</v>
       </c>
       <c r="G10" s="1" t="str">
-        <v>N/A / Baruipara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H10" s="1" t="str">
         <v>23.986075</v>
@@ -715,7 +715,7 @@
         <v>Baruipara Water Supply Scheme</v>
       </c>
       <c r="G11" s="1" t="str">
-        <v>N/A / Baruipara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H11" s="1" t="str">
         <v>23.984586</v>
@@ -744,7 +744,7 @@
         <v>Baruipara Water Supply Scheme</v>
       </c>
       <c r="G12" s="1" t="str">
-        <v>N/A / Baruipara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H12" s="1" t="str">
         <v>23.986625</v>
@@ -773,7 +773,7 @@
         <v>Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G13" s="1" t="str">
-        <v>Zone I / Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H13" s="1" t="str">
         <v>23.917878</v>
@@ -802,7 +802,7 @@
         <v>Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G14" s="1" t="str">
-        <v>Zone I / Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H14" s="1" t="str">
         <v>23.920535</v>
@@ -831,7 +831,7 @@
         <v>Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G15" s="1" t="str">
-        <v>Zone II / Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H15" s="1" t="str">
         <v>23.92104</v>
@@ -860,7 +860,7 @@
         <v>Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G16" s="1" t="str">
-        <v>Zone II / Ber Ramchandrapur (Zone - I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H16" s="1" t="str">
         <v>23.918922</v>
@@ -889,7 +889,7 @@
         <v>Karimpur Water Supply Scheme</v>
       </c>
       <c r="G17" s="1" t="str">
-        <v>N/A / Karimpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H17" s="1" t="str">
         <v>23.980952</v>
@@ -918,7 +918,7 @@
         <v>Karimpur Water Supply Scheme</v>
       </c>
       <c r="G18" s="1" t="str">
-        <v>N/A / Karimpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H18" s="1" t="str">
         <v>23.980928</v>
@@ -947,7 +947,7 @@
         <v>Karimpur Water Supply Scheme</v>
       </c>
       <c r="G19" s="1" t="str">
-        <v>N/A / Karimpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H19" s="1" t="str">
         <v>23.979923</v>
@@ -976,7 +976,7 @@
         <v>Karimpur Water Supply Scheme</v>
       </c>
       <c r="G20" s="1" t="str">
-        <v>N/A / Karimpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H20" s="1" t="str">
         <v>23.986145</v>
@@ -1005,7 +1005,7 @@
         <v>Karimpur Water Supply Scheme</v>
       </c>
       <c r="G21" s="1" t="str">
-        <v>N/A / Karimpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H21" s="1" t="str">
         <v>23.985842</v>
@@ -1034,7 +1034,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G22" s="1" t="str">
-        <v>Zone IV / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone IV</v>
       </c>
       <c r="H22" s="1" t="str">
         <v>24.0678199999999</v>
@@ -1063,7 +1063,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G23" s="1" t="str">
-        <v>Zone IV / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone IV</v>
       </c>
       <c r="H23" s="1" t="str">
         <v>24.0683683333333</v>
@@ -1092,7 +1092,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G24" s="1" t="str">
-        <v>Zone V / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone V</v>
       </c>
       <c r="H24" s="1" t="str">
         <v>24.03647</v>
@@ -1121,7 +1121,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G25" s="1" t="str">
-        <v>Zone V / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone V</v>
       </c>
       <c r="H25" s="1" t="str">
         <v>24.0382231</v>
@@ -1150,7 +1150,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G26" s="1" t="str">
-        <v>Zone VI / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone VI</v>
       </c>
       <c r="H26" s="1" t="str">
         <v>24.009052</v>
@@ -1179,7 +1179,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G27" s="1" t="str">
-        <v>Zone VI / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone VI</v>
       </c>
       <c r="H27" s="1" t="str">
         <v>24.005824</v>
@@ -1208,7 +1208,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G28" s="1" t="str">
-        <v>Zone VII / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone VII</v>
       </c>
       <c r="H28" s="1" t="str">
         <v>23.973385</v>
@@ -1237,7 +1237,7 @@
         <v>Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
       </c>
       <c r="G29" s="1" t="str">
-        <v>Zone VII / Karimpur-Jalangi (Zone - IV to VII) Water Supply Scheme</v>
+        <v>Zone VII</v>
       </c>
       <c r="H29" s="1" t="str">
         <v>23.976706</v>
@@ -1266,7 +1266,7 @@
         <v>Madhugari  Water Supply Scheme</v>
       </c>
       <c r="G30" s="1" t="str">
-        <v>N/A / Madhugari  Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H30" s="1" t="str">
         <v>24.0660926</v>
@@ -1295,7 +1295,7 @@
         <v>Madhugari  Water Supply Scheme</v>
       </c>
       <c r="G31" s="1" t="str">
-        <v>N/A / Madhugari  Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H31" s="1" t="str">
         <v>24.0660926</v>
@@ -1324,7 +1324,7 @@
         <v>Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
       </c>
       <c r="G32" s="1" t="str">
-        <v>Zone I / Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
+        <v>Zone I</v>
       </c>
       <c r="H32" s="1" t="str">
         <v>23.964027</v>
@@ -1353,7 +1353,7 @@
         <v>Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
       </c>
       <c r="G33" s="1" t="str">
-        <v>Zone I / Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
+        <v>Zone I</v>
       </c>
       <c r="H33" s="1" t="str">
         <v>23.961821</v>
@@ -1382,7 +1382,7 @@
         <v>Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
       </c>
       <c r="G34" s="1" t="str">
-        <v>Zone II / Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
+        <v>Zone II</v>
       </c>
       <c r="H34" s="1" t="str">
         <v>23.948547</v>
@@ -1411,7 +1411,7 @@
         <v>Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
       </c>
       <c r="G35" s="1" t="str">
-        <v>Zone II / Muktadaha (Zone - I &amp; II)   Water Supply Scheme   (Zone - I - Two Stage Pumping)</v>
+        <v>Zone II</v>
       </c>
       <c r="H35" s="1" t="str">
         <v>23.948547</v>
@@ -1440,7 +1440,7 @@
         <v>Dhoradaha Water Supply Scheme</v>
       </c>
       <c r="G36" s="1" t="str">
-        <v>N/A / Dhoradaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H36" s="1" t="str">
         <v>24.000547</v>
@@ -1469,7 +1469,7 @@
         <v>Dhoradaha Water Supply Scheme</v>
       </c>
       <c r="G37" s="1" t="str">
-        <v>N/A / Dhoradaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H37" s="1" t="str">
         <v>23. 998851</v>
@@ -1498,7 +1498,7 @@
         <v>Dogachi Water Supply Scheme</v>
       </c>
       <c r="G38" s="1" t="str">
-        <v>N/A / Dogachi Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H38" s="1" t="str">
         <v>23.999161</v>
@@ -1527,7 +1527,7 @@
         <v>Dogachi Water Supply Scheme</v>
       </c>
       <c r="G39" s="1" t="str">
-        <v>N/A / Dogachi Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H39" s="1" t="str">
         <v>24.007708</v>
@@ -1556,7 +1556,7 @@
         <v>Fazilnagar Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G40" s="1" t="str">
-        <v>N/A / Fazilnagar Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H40" s="1" t="str">
         <v>23.934335</v>
@@ -1585,7 +1585,7 @@
         <v>Fazilnagar Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G41" s="1" t="str">
-        <v>N/A / Fazilnagar Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H41" s="1" t="str">
         <v>23.933199</v>
@@ -1614,7 +1614,7 @@
         <v>Fazilnagar Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G42" s="1" t="str">
-        <v>N/A / Fazilnagar Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H42" s="1" t="str">
         <v>23.935618</v>
@@ -1643,7 +1643,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G43" s="1" t="str">
-        <v>Zone VIII / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone VIII</v>
       </c>
       <c r="H43" s="1" t="str">
         <v>23.931628</v>
@@ -1672,7 +1672,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G44" s="1" t="str">
-        <v>Zone VIII / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone VIII</v>
       </c>
       <c r="H44" s="1" t="str">
         <v>23.925049</v>
@@ -1701,7 +1701,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G45" s="1" t="str">
-        <v>Zone IX A / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone IX A</v>
       </c>
       <c r="H45" s="1" t="str">
         <v>23.880961</v>
@@ -1730,7 +1730,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G46" s="1" t="str">
-        <v>Zone IX A / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone IX A</v>
       </c>
       <c r="H46" s="1" t="str">
         <v>23.884754</v>
@@ -1759,7 +1759,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G47" s="1" t="str">
-        <v>Zone IX B / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone IX B</v>
       </c>
       <c r="H47" s="1" t="str">
         <v>23.887869</v>
@@ -1788,7 +1788,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G48" s="1" t="str">
-        <v>Zone X A / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone X A</v>
       </c>
       <c r="H48" s="1" t="str">
         <v>23.882892</v>
@@ -1817,7 +1817,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G49" s="1" t="str">
-        <v>Zone X A / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone X A</v>
       </c>
       <c r="H49" s="1" t="str">
         <v>23.886354</v>
@@ -1846,7 +1846,7 @@
         <v>Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
       </c>
       <c r="G50" s="1" t="str">
-        <v>Zone X B / Karimpur Jalangi (Zone - VII to X) Water Supply Scheme</v>
+        <v>Zone X B</v>
       </c>
       <c r="H50" s="1" t="str">
         <v>23.88589</v>
@@ -1875,7 +1875,7 @@
         <v>Kisorepur Water Supply Scheme</v>
       </c>
       <c r="G51" s="1" t="str">
-        <v>N/A / Kisorepur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H51" s="1" t="str">
         <v>23.901908</v>
@@ -1904,7 +1904,7 @@
         <v>Kisorepur Water Supply Scheme</v>
       </c>
       <c r="G52" s="1" t="str">
-        <v>N/A / Kisorepur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H52" s="1" t="str">
         <v>23.89891</v>
@@ -1933,7 +1933,7 @@
         <v>Madhpur Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G53" s="1" t="str">
-        <v>N/A / Madhpur Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H53" s="1" t="str">
         <v>23.943204</v>
@@ -1962,7 +1962,7 @@
         <v>Madhpur Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G54" s="1" t="str">
-        <v>N/A / Madhpur Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H54" s="1" t="str">
         <v>23.940529</v>
@@ -1991,7 +1991,7 @@
         <v>Mahisbathan Water Supply Scheme</v>
       </c>
       <c r="G55" s="1" t="str">
-        <v>N/A / Mahisbathan Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H55" s="1" t="str">
         <v>23.940904</v>
@@ -2020,7 +2020,7 @@
         <v>Mahisbathan Water Supply Scheme</v>
       </c>
       <c r="G56" s="1" t="str">
-        <v>N/A / Mahisbathan Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H56" s="1" t="str">
         <v>23.940933</v>
@@ -2049,7 +2049,7 @@
         <v>Murutia Water Supply Scheme</v>
       </c>
       <c r="G57" s="1" t="str">
-        <v>N/A / Murutia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H57" s="1" t="str">
         <v>23.922768</v>
@@ -2078,7 +2078,7 @@
         <v>Murutia Water Supply Scheme</v>
       </c>
       <c r="G58" s="1" t="str">
-        <v>N/A / Murutia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H58" s="1" t="str">
         <v>23.923104</v>
@@ -2107,7 +2107,7 @@
         <v>Murutia Water Supply Scheme</v>
       </c>
       <c r="G59" s="1" t="str">
-        <v>N/A / Murutia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H59" s="1" t="str">
         <v>23.923473</v>
@@ -2136,7 +2136,7 @@
         <v>Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G60" s="1" t="str">
-        <v>N/A / Narayanpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H60" s="1" t="str">
         <v>23.918068</v>
@@ -2165,7 +2165,7 @@
         <v>Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G61" s="1" t="str">
-        <v>N/A / Narayanpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H61" s="1" t="str">
         <v>23.917171</v>
@@ -2194,7 +2194,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G62" s="1" t="str">
-        <v>Zone I / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone I</v>
       </c>
       <c r="H62" s="1" t="str">
         <v>23.896822</v>
@@ -2223,7 +2223,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G63" s="1" t="str">
-        <v>Zone I / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone I</v>
       </c>
       <c r="H63" s="1" t="str">
         <v>23.897402</v>
@@ -2252,7 +2252,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G64" s="1" t="str">
-        <v>Zone II / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone II</v>
       </c>
       <c r="H64" s="1" t="str">
         <v>23.875273</v>
@@ -2281,7 +2281,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G65" s="1" t="str">
-        <v>Zone II / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone II</v>
       </c>
       <c r="H65" s="1" t="str">
         <v>23.877356</v>
@@ -2310,7 +2310,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G66" s="1" t="str">
-        <v>Zone III / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone III</v>
       </c>
       <c r="H66" s="1" t="str">
         <v>23.893535</v>
@@ -2339,7 +2339,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G67" s="1" t="str">
-        <v>Zone III / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone III</v>
       </c>
       <c r="H67" s="1" t="str">
         <v>23.889341</v>
@@ -2368,7 +2368,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G68" s="1" t="str">
-        <v>Zone IV / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone IV</v>
       </c>
       <c r="H68" s="1" t="str">
         <v>23.897</v>
@@ -2397,7 +2397,7 @@
         <v>Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
       </c>
       <c r="G69" s="1" t="str">
-        <v>Zone IV / Teinpur (Zone - I to IV) Water Supply Scheme (Zone - III - Two Stage Pumping)</v>
+        <v>Zone IV</v>
       </c>
       <c r="H69" s="1" t="str">
         <v>23.899284</v>
@@ -2426,7 +2426,7 @@
         <v>Thanapara Water Supply Scheme</v>
       </c>
       <c r="G70" s="1" t="str">
-        <v>N/A / Thanapara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H70" s="1" t="str">
         <v>23.957063</v>
@@ -2455,7 +2455,7 @@
         <v>Thanapara Water Supply Scheme</v>
       </c>
       <c r="G71" s="1" t="str">
-        <v>N/A / Thanapara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H71" s="1" t="str">
         <v>23.95571</v>
@@ -2484,7 +2484,7 @@
         <v>Thanapara Water Supply Scheme</v>
       </c>
       <c r="G72" s="1" t="str">
-        <v>N/A / Thanapara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H72" s="1" t="str">
         <v>23.956834</v>
@@ -2513,7 +2513,7 @@
         <v>Thanapara Water Supply Scheme</v>
       </c>
       <c r="G73" s="1" t="str">
-        <v>N/A / Thanapara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H73" s="1" t="str">
         <v>23.956666</v>
@@ -2542,7 +2542,7 @@
         <v>Topla Water Supply Scheme</v>
       </c>
       <c r="G74" s="1" t="str">
-        <v>N/A / Topla Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H74" s="1" t="str">
         <v>23.882307</v>
@@ -2571,7 +2571,7 @@
         <v>Topla Water Supply Scheme</v>
       </c>
       <c r="G75" s="1" t="str">
-        <v>N/A / Topla Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H75" s="1" t="str">
         <v>23.875929</v>
@@ -2600,7 +2600,7 @@
         <v>Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G76" s="1" t="str">
-        <v>Zone I / Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H76" s="1" t="str">
         <v>23.553969</v>
@@ -2629,7 +2629,7 @@
         <v>Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G77" s="1" t="str">
-        <v>Zone I / Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H77" s="1" t="str">
         <v>23.573981</v>
@@ -2658,7 +2658,7 @@
         <v>Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G78" s="1" t="str">
-        <v>Zone II / Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H78" s="1" t="str">
         <v>23.576031</v>
@@ -2687,7 +2687,7 @@
         <v>Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G79" s="1" t="str">
-        <v>Zone II / Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H79" s="1" t="str">
         <v>23.573966</v>
@@ -2716,7 +2716,7 @@
         <v>Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G80" s="1" t="str">
-        <v>Zone II / Badalangi Padmala(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H80" s="1" t="str">
         <v>23.583068</v>
@@ -2745,7 +2745,7 @@
         <v>Bagberia Water Supply Scheme</v>
       </c>
       <c r="G81" s="1" t="str">
-        <v>N/A / Bagberia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H81" s="1" t="str">
         <v>23.5078</v>
@@ -2774,7 +2774,7 @@
         <v>Bagberia Water Supply Scheme</v>
       </c>
       <c r="G82" s="1" t="str">
-        <v>N/A / Bagberia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H82" s="1" t="str">
         <v>23.504781</v>
@@ -2803,7 +2803,7 @@
         <v>Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G83" s="1" t="str">
-        <v>Zone I / Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H83" s="1" t="str">
         <v>23.490393</v>
@@ -2832,7 +2832,7 @@
         <v>Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G84" s="1" t="str">
-        <v>Zone I / Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H84" s="1" t="str">
         <v>23.490022</v>
@@ -2861,7 +2861,7 @@
         <v>Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G85" s="1" t="str">
-        <v>Zone II / Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H85" s="1" t="str">
         <v>23.4777</v>
@@ -2890,7 +2890,7 @@
         <v>Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G86" s="1" t="str">
-        <v>Zone II / Bahirgachi(Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H86" s="1" t="str">
         <v>23.477758</v>
@@ -2919,7 +2919,7 @@
         <v>Balibanga Water Supply Scheme</v>
       </c>
       <c r="G87" s="1" t="str">
-        <v>N/A / Balibanga Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H87" s="1" t="str">
         <v>23.519833</v>
@@ -2948,7 +2948,7 @@
         <v>Balibanga Water Supply Scheme</v>
       </c>
       <c r="G88" s="1" t="str">
-        <v>N/A / Balibanga Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H88" s="1" t="str">
         <v>23.516346</v>
@@ -2977,7 +2977,7 @@
         <v>Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
       </c>
       <c r="G89" s="1" t="str">
-        <v>Zone 1 / Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
+        <v>Zone 1</v>
       </c>
       <c r="H89" s="1" t="str">
         <v>23.608</v>
@@ -3006,7 +3006,7 @@
         <v>Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
       </c>
       <c r="G90" s="1" t="str">
-        <v>Zone I / Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
+        <v>Zone I</v>
       </c>
       <c r="H90" s="1" t="str">
         <v>23.611561</v>
@@ -3035,7 +3035,7 @@
         <v>Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
       </c>
       <c r="G91" s="1" t="str">
-        <v>Zone II / Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
+        <v>Zone II</v>
       </c>
       <c r="H91" s="1" t="str">
         <v>23.643998</v>
@@ -3064,7 +3064,7 @@
         <v>Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
       </c>
       <c r="G92" s="1" t="str">
-        <v>Zone II / Bara Andulia(Zone-I &amp; II) Water Supply Scheme Chapra</v>
+        <v>Zone II</v>
       </c>
       <c r="H92" s="1" t="str">
         <v>23.645632</v>
@@ -3093,7 +3093,7 @@
         <v>Betberia Water Supply Scheme</v>
       </c>
       <c r="G93" s="1" t="str">
-        <v>N/A / Betberia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H93" s="1" t="str">
         <v>23.617978</v>
@@ -3122,7 +3122,7 @@
         <v>Betberia Water Supply Scheme</v>
       </c>
       <c r="G94" s="1" t="str">
-        <v>N/A / Betberia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H94" s="1" t="str">
         <v>23.585345</v>
@@ -3151,7 +3151,7 @@
         <v>Brittihuda Water Supply Scheme</v>
       </c>
       <c r="G95" s="1" t="str">
-        <v>N/A / Brittihuda Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H95" s="1" t="str">
         <v>23.561218</v>
@@ -3180,7 +3180,7 @@
         <v>Brittihuda Water Supply Scheme</v>
       </c>
       <c r="G96" s="1" t="str">
-        <v>N/A / Brittihuda Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H96" s="1" t="str">
         <v>23.565403</v>
@@ -3209,7 +3209,7 @@
         <v>Brittihuda Water Supply Scheme</v>
       </c>
       <c r="G97" s="1" t="str">
-        <v>N/A / Brittihuda Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H97" s="1" t="str">
         <v>23.570537</v>
@@ -3238,7 +3238,7 @@
         <v>Brittihuda Water Supply Scheme</v>
       </c>
       <c r="G98" s="1" t="str">
-        <v>N/A / Brittihuda Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H98" s="1" t="str">
         <v>23.5592</v>
@@ -3267,7 +3267,7 @@
         <v>Brittihuda Water Supply Scheme</v>
       </c>
       <c r="G99" s="1" t="str">
-        <v>N/A / Brittihuda Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H99" s="1" t="str">
         <v>23.557272</v>
@@ -3296,7 +3296,7 @@
         <v>Chapra Bangalji Water Supply Scheme</v>
       </c>
       <c r="G100" s="1" t="str">
-        <v>N/A / Chapra Bangalji Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H100" s="1" t="str">
         <v>23.552556</v>
@@ -3325,7 +3325,7 @@
         <v>Chapra Bangalji Water Supply Scheme</v>
       </c>
       <c r="G101" s="1" t="str">
-        <v>N/A / Chapra Bangalji Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H101" s="1" t="str">
         <v>23.517998</v>
@@ -3354,7 +3354,7 @@
         <v>Elangi (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G102" s="1" t="str">
-        <v>Zone I / Elangi (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H102" s="1" t="str">
         <v>23.52294</v>
@@ -3383,7 +3383,7 @@
         <v>Elangi (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G103" s="1" t="str">
-        <v>Zone I / Elangi (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H103" s="1" t="str">
         <v>23.527051</v>
@@ -3412,7 +3412,7 @@
         <v>Elangi (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G104" s="1" t="str">
-        <v>Zone II / Elangi (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H104" s="1" t="str">
         <v>23.541565</v>
@@ -3441,7 +3441,7 @@
         <v>Elangi (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G105" s="1" t="str">
-        <v>Zone II / Elangi (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H105" s="1" t="str">
         <v>23.543498</v>
@@ -3470,7 +3470,7 @@
         <v>Gongra Water Supply Scheme</v>
       </c>
       <c r="G106" s="1" t="str">
-        <v>N/A / Gongra Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H106" s="1" t="str">
         <v>23.585364</v>
@@ -3499,7 +3499,7 @@
         <v>Gongra Water Supply Scheme</v>
       </c>
       <c r="G107" s="1" t="str">
-        <v>N/A / Gongra Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H107" s="1" t="str">
         <v>23.589267</v>
@@ -3528,7 +3528,7 @@
         <v>Lakshmipur Water Supply Scheme</v>
       </c>
       <c r="G108" s="1" t="str">
-        <v>N/A / Lakshmipur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H108" s="1" t="str">
         <v>23.523969</v>
@@ -3557,7 +3557,7 @@
         <v>Lakshmipur Water Supply Scheme</v>
       </c>
       <c r="G109" s="1" t="str">
-        <v>N/A / Lakshmipur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H109" s="1" t="str">
         <v>23.518409</v>
@@ -3586,7 +3586,7 @@
         <v>Madhabpur Water Supply Scheme</v>
       </c>
       <c r="G110" s="1" t="str">
-        <v>N/A / Madhabpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H110" s="1" t="str">
         <v>23.496437</v>
@@ -3615,7 +3615,7 @@
         <v>Madhabpur Water Supply Scheme</v>
       </c>
       <c r="G111" s="1" t="str">
-        <v>N/A / Madhabpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H111" s="1" t="str">
         <v>23.496675</v>
@@ -3644,7 +3644,7 @@
         <v>Madhabpur Water Supply Scheme</v>
       </c>
       <c r="G112" s="1" t="str">
-        <v>N/A / Madhabpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H112" s="1" t="str">
         <v>23.495934</v>
@@ -3673,7 +3673,7 @@
         <v>Mahatpur Water Supply Scheme</v>
       </c>
       <c r="G113" s="1" t="str">
-        <v>N/A / Mahatpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H113" s="1" t="str">
         <v>23.48051</v>
@@ -3702,7 +3702,7 @@
         <v>Mahatpur Water Supply Scheme</v>
       </c>
       <c r="G114" s="1" t="str">
-        <v>N/A / Mahatpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H114" s="1" t="str">
         <v>23.480511</v>
@@ -3731,7 +3731,7 @@
         <v>Mahatpur Water Supply Scheme</v>
       </c>
       <c r="G115" s="1" t="str">
-        <v>N/A / Mahatpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H115" s="1" t="str">
         <v>23.480365</v>
@@ -3760,7 +3760,7 @@
         <v>Mahatpur Water Supply Scheme</v>
       </c>
       <c r="G116" s="1" t="str">
-        <v>N/A / Mahatpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H116" s="1" t="str">
         <v>23.483328</v>
@@ -3789,7 +3789,7 @@
         <v>Maheshpur Water Supply Scheme</v>
       </c>
       <c r="G117" s="1" t="str">
-        <v>N/A / Maheshpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H117" s="1" t="str">
         <v>23.515352</v>
@@ -3818,7 +3818,7 @@
         <v>Maheshpur Water Supply Scheme</v>
       </c>
       <c r="G118" s="1" t="str">
-        <v>N/A / Maheshpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H118" s="1" t="str">
         <v>23.514722</v>
@@ -3847,7 +3847,7 @@
         <v>Maidanpur Water Supply Scheme</v>
       </c>
       <c r="G119" s="1" t="str">
-        <v>N/A / Maidanpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H119" s="1" t="str">
         <v>23.468293</v>
@@ -3876,7 +3876,7 @@
         <v>Maidanpur Water Supply Scheme</v>
       </c>
       <c r="G120" s="1" t="str">
-        <v>N/A / Maidanpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H120" s="1" t="str">
         <v>23.468437</v>
@@ -3905,7 +3905,7 @@
         <v>Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G121" s="1" t="str">
-        <v>Zone I / Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H121" s="1" t="str">
         <v>23.769067</v>
@@ -3934,7 +3934,7 @@
         <v>Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G122" s="1" t="str">
-        <v>Zone I / Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H122" s="1" t="str">
         <v>23.768138</v>
@@ -3963,7 +3963,7 @@
         <v>Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G123" s="1" t="str">
-        <v>Zone II / Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H123" s="1" t="str">
         <v>23.809424</v>
@@ -3992,7 +3992,7 @@
         <v>Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G124" s="1" t="str">
-        <v>Zone II / Bagakhali (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H124" s="1" t="str">
         <v>23.808985</v>
@@ -4021,7 +4021,7 @@
         <v>Bahadurpur Water Supply Scheme</v>
       </c>
       <c r="G125" s="1" t="str">
-        <v>N/A / Bahadurpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H125" s="1" t="str">
         <v>23.832924</v>
@@ -4050,7 +4050,7 @@
         <v>Bahadurpur Water Supply Scheme</v>
       </c>
       <c r="G126" s="1" t="str">
-        <v>N/A / Bahadurpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H126" s="1" t="str">
         <v>23.83531</v>
@@ -4079,7 +4079,7 @@
         <v>Betai (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G127" s="1" t="str">
-        <v>Zone I / Betai (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H127" s="1" t="str">
         <v>23.783864</v>
@@ -4108,7 +4108,7 @@
         <v>Betai (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G128" s="1" t="str">
-        <v>Zone I / Betai (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H128" s="1" t="str">
         <v>23.814722</v>
@@ -4137,7 +4137,7 @@
         <v>Betai (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G129" s="1" t="str">
-        <v>Zone II / Betai (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H129" s="1" t="str">
         <v>23.783782</v>
@@ -4166,7 +4166,7 @@
         <v>Betai (Zone-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G130" s="1" t="str">
-        <v>Zone II / Betai (Zone-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H130" s="1" t="str">
         <v>23.816571</v>
@@ -4195,7 +4195,7 @@
         <v>Chanderghat Water Supply Scheme</v>
       </c>
       <c r="G131" s="1" t="str">
-        <v>N/A / Chanderghat Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H131" s="1" t="str">
         <v>23.689649</v>
@@ -4224,7 +4224,7 @@
         <v>Chanderghat Water Supply Scheme</v>
       </c>
       <c r="G132" s="1" t="str">
-        <v>N/A / Chanderghat Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H132" s="1" t="str">
         <v>23.68965</v>
@@ -4253,7 +4253,7 @@
         <v>Khanjipur Water Supply Scheme</v>
       </c>
       <c r="G133" s="1" t="str">
-        <v>N/A / Khanjipur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H133" s="1" t="str">
         <v>88.567658</v>
@@ -4282,7 +4282,7 @@
         <v>Khanjipur Water Supply Scheme</v>
       </c>
       <c r="G134" s="1" t="str">
-        <v>N/A / Khanjipur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H134" s="1" t="str">
         <v>23.870565</v>
@@ -4311,7 +4311,7 @@
         <v>Mobarakpur Water Supply Scheme</v>
       </c>
       <c r="G135" s="1" t="str">
-        <v>N/A / Mobarakpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H135" s="1" t="str">
         <v>23.84065</v>
@@ -4340,7 +4340,7 @@
         <v>Mobarakpur Water Supply Scheme</v>
       </c>
       <c r="G136" s="1" t="str">
-        <v>N/A / Mobarakpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H136" s="1" t="str">
         <v>23.838153</v>
@@ -4369,7 +4369,7 @@
         <v>Natna Water Supply Scheme</v>
       </c>
       <c r="G137" s="1" t="str">
-        <v>N/A / Natna Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H137" s="1" t="str">
         <v>23.734138</v>
@@ -4398,7 +4398,7 @@
         <v>Natna Water Supply Scheme</v>
       </c>
       <c r="G138" s="1" t="str">
-        <v>N/A / Natna Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H138" s="1" t="str">
         <v>23.733966</v>
@@ -4427,7 +4427,7 @@
         <v>Nazirpur Water Supply Scheme</v>
       </c>
       <c r="G139" s="1" t="str">
-        <v>N/A / Nazirpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H139" s="1" t="str">
         <v>23.859876</v>
@@ -4456,7 +4456,7 @@
         <v>Nazirpur Water Supply Scheme</v>
       </c>
       <c r="G140" s="1" t="str">
-        <v>N/A / Nazirpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H140" s="1" t="str">
         <v>23.858405</v>
@@ -4485,7 +4485,7 @@
         <v>Nischintapur Water Supply Scheme</v>
       </c>
       <c r="G141" s="1" t="str">
-        <v>N/A / Nischintapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H141" s="1" t="str">
         <v>23.763339</v>
@@ -4514,7 +4514,7 @@
         <v>Nischintapur Water Supply Scheme</v>
       </c>
       <c r="G142" s="1" t="str">
-        <v>N/A / Nischintapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H142" s="1" t="str">
         <v>23.777274</v>
@@ -4543,7 +4543,7 @@
         <v>Patharghata Water Supply Scheme</v>
       </c>
       <c r="G143" s="1" t="str">
-        <v>N/A / Patharghata Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H143" s="1" t="str">
         <v>23.660329</v>
@@ -4572,7 +4572,7 @@
         <v>Patharghata Water Supply Scheme</v>
       </c>
       <c r="G144" s="1" t="str">
-        <v>N/A / Patharghata Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H144" s="1" t="str">
         <v>23.665236</v>
@@ -4601,7 +4601,7 @@
         <v>Putimari Water Supply Scheme</v>
       </c>
       <c r="G145" s="1" t="str">
-        <v>N/A / Putimari Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H145" s="1" t="str">
         <v>23.676851</v>
@@ -4630,7 +4630,7 @@
         <v>Putimari Water Supply Scheme</v>
       </c>
       <c r="G146" s="1" t="str">
-        <v>N/A / Putimari Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H146" s="1" t="str">
         <v>23.677271</v>
@@ -4659,7 +4659,7 @@
         <v>Shyamnagar Water Supply Scheme</v>
       </c>
       <c r="G147" s="1" t="str">
-        <v>N/A / Shyamnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H147" s="1" t="str">
         <v>23.794004</v>
@@ -4688,7 +4688,7 @@
         <v>Shyamnagar Water Supply Scheme</v>
       </c>
       <c r="G148" s="1" t="str">
-        <v>N/A / Shyamnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H148" s="1" t="str">
         <v>23.791775</v>
@@ -4717,7 +4717,7 @@
         <v>Tehatta Water Supply Scheme</v>
       </c>
       <c r="G149" s="1" t="str">
-        <v>N/A / Tehatta Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H149" s="1" t="str">
         <v>23.726186</v>
@@ -4746,7 +4746,7 @@
         <v>Tehatta Water Supply Scheme</v>
       </c>
       <c r="G150" s="1" t="str">
-        <v>N/A / Tehatta Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H150" s="1" t="str">
         <v>23.727409</v>
@@ -4775,7 +4775,7 @@
         <v>Tehatta Water Supply Scheme</v>
       </c>
       <c r="G151" s="1" t="str">
-        <v>N/A / Tehatta Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H151" s="1" t="str">
         <v>23.747841</v>
@@ -4804,7 +4804,7 @@
         <v>Bara Naldaha Water Supply Scheme</v>
       </c>
       <c r="G152" s="1" t="str">
-        <v>N/A / Bara Naldaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H152" s="1" t="str">
         <v>23.796118</v>
@@ -4833,7 +4833,7 @@
         <v>Bara Naldaha Water Supply Scheme</v>
       </c>
       <c r="G153" s="1" t="str">
-        <v>N/A / Bara Naldaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H153" s="1" t="str">
         <v>23.793055</v>
@@ -4862,7 +4862,7 @@
         <v>Baraia Water Supply Scheme</v>
       </c>
       <c r="G154" s="1" t="str">
-        <v>N/A / Baraia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H154" s="1" t="str">
         <v>23.735877</v>
@@ -4891,7 +4891,7 @@
         <v>Baraia Water Supply Scheme</v>
       </c>
       <c r="G155" s="1" t="str">
-        <v>N/A / Baraia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H155" s="1" t="str">
         <v>23.735263</v>
@@ -4920,7 +4920,7 @@
         <v>Barnia Water Supply Scheme</v>
       </c>
       <c r="G156" s="1" t="str">
-        <v>N/A / Barnia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H156" s="1" t="str">
         <v>23.727318</v>
@@ -4949,7 +4949,7 @@
         <v>Barnia Water Supply Scheme</v>
       </c>
       <c r="G157" s="1" t="str">
-        <v>N/A / Barnia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H157" s="1" t="str">
         <v>23.729865</v>
@@ -4978,7 +4978,7 @@
         <v>Barnia Water Supply Scheme</v>
       </c>
       <c r="G158" s="1" t="str">
-        <v>N/A / Barnia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H158" s="1" t="str">
         <v>23.726773</v>
@@ -5007,7 +5007,7 @@
         <v>Barnia Water Supply Scheme</v>
       </c>
       <c r="G159" s="1" t="str">
-        <v>N/A / Barnia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H159" s="1" t="str">
         <v>23.726124</v>
@@ -5036,7 +5036,7 @@
         <v>Gopinathpur Water Supply Scheme</v>
       </c>
       <c r="G160" s="1" t="str">
-        <v>N/A / Gopinathpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H160" s="1" t="str">
         <v>23.816206</v>
@@ -5065,7 +5065,7 @@
         <v>Gopinathpur Water Supply Scheme</v>
       </c>
       <c r="G161" s="1" t="str">
-        <v>N/A / Gopinathpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H161" s="1" t="str">
         <v>23.818155</v>
@@ -5094,7 +5094,7 @@
         <v>Gopinathpur Water Supply Scheme</v>
       </c>
       <c r="G162" s="1" t="str">
-        <v>N/A / Gopinathpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H162" s="1" t="str">
         <v>23.817562</v>
@@ -5123,7 +5123,7 @@
         <v>Hanspukuria Water Supply Scheme</v>
       </c>
       <c r="G163" s="1" t="str">
-        <v>N/A / Hanspukuria Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H163" s="1" t="str">
         <v>23.735775</v>
@@ -5152,7 +5152,7 @@
         <v>Hanspukuria Water Supply Scheme</v>
       </c>
       <c r="G164" s="1" t="str">
-        <v>N/A / Hanspukuria Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H164" s="1" t="str">
         <v>23.737687</v>
@@ -5181,7 +5181,7 @@
         <v>Palasipara Water Supply Scheme</v>
       </c>
       <c r="G165" s="1" t="str">
-        <v>N/A / Palasipara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H165" s="1" t="str">
         <v>23.789116</v>
@@ -5210,7 +5210,7 @@
         <v>Palasipara Water Supply Scheme</v>
       </c>
       <c r="G166" s="1" t="str">
-        <v>N/A / Palasipara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H166" s="1" t="str">
         <v>23.79074</v>
@@ -5239,7 +5239,7 @@
         <v>Palsunda Water Supply Scheme</v>
       </c>
       <c r="G167" s="1" t="str">
-        <v>N/A / Palsunda Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H167" s="1" t="str">
         <v>23.761248</v>
@@ -5268,7 +5268,7 @@
         <v>Palsunda Water Supply Scheme</v>
       </c>
       <c r="G168" s="1" t="str">
-        <v>N/A / Palsunda Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H168" s="1" t="str">
         <v>23.760637</v>
@@ -5297,7 +5297,7 @@
         <v>Bagula Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G169" s="1" t="str">
-        <v>Zone I / Bagula Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H169" s="1" t="str">
         <v>23.333818</v>
@@ -5326,7 +5326,7 @@
         <v>Bagula Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G170" s="1" t="str">
-        <v>Zone I / Bagula Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H170" s="1" t="str">
         <v>23.329188</v>
@@ -5355,7 +5355,7 @@
         <v>Bagula Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G171" s="1" t="str">
-        <v>Zone II / Bagula Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H171" s="1" t="str">
         <v>23.342084</v>
@@ -5384,7 +5384,7 @@
         <v>Bagula Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G172" s="1" t="str">
-        <v>Zone II / Bagula Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H172" s="1" t="str">
         <v>23.339721</v>
@@ -5413,7 +5413,7 @@
         <v>Chupria Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G173" s="1" t="str">
-        <v>Zone I / Chupria Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H173" s="1" t="str">
         <v>23.320571</v>
@@ -5442,7 +5442,7 @@
         <v>Chupria Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G174" s="1" t="str">
-        <v>Zone I / Chupria Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H174" s="1" t="str">
         <v>23.324503</v>
@@ -5471,7 +5471,7 @@
         <v>Chupria Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G175" s="1" t="str">
-        <v>Zone II / Chupria Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H175" s="1" t="str">
         <v>23.305107</v>
@@ -5500,7 +5500,7 @@
         <v>Chupria Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G176" s="1" t="str">
-        <v>Zone II / Chupria Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H176" s="1" t="str">
         <v>23.307381</v>
@@ -5529,7 +5529,7 @@
         <v>Garapota Water Supply Scheme</v>
       </c>
       <c r="G177" s="1" t="str">
-        <v>N/A / Garapota Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H177" s="1" t="str">
         <v>23.342668</v>
@@ -5558,7 +5558,7 @@
         <v>Garapota Water Supply Scheme</v>
       </c>
       <c r="G178" s="1" t="str">
-        <v>N/A / Garapota Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H178" s="1" t="str">
         <v>23.343776</v>
@@ -5587,7 +5587,7 @@
         <v>Garapota Water Supply Scheme</v>
       </c>
       <c r="G179" s="1" t="str">
-        <v>N/A / Garapota Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H179" s="1" t="str">
         <v>23.339979</v>
@@ -5616,7 +5616,7 @@
         <v>Betna Water Supply Scheme</v>
       </c>
       <c r="G180" s="1" t="str">
-        <v>N/A / Betna Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H180" s="1" t="str">
         <v>23.388578</v>
@@ -5645,7 +5645,7 @@
         <v>Betna Water Supply Scheme</v>
       </c>
       <c r="G181" s="1" t="str">
-        <v>N/A / Betna Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H181" s="1" t="str">
         <v>23.387421</v>
@@ -5674,7 +5674,7 @@
         <v>Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G182" s="1" t="str">
-        <v>Zone I / Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H182" s="1" t="str">
         <v>23.299612</v>
@@ -5703,7 +5703,7 @@
         <v>Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G183" s="1" t="str">
-        <v>Zone I / Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H183" s="1" t="str">
         <v>23.298068</v>
@@ -5732,7 +5732,7 @@
         <v>Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G184" s="1" t="str">
-        <v>Zone II / Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H184" s="1" t="str">
         <v>23.299794</v>
@@ -5761,7 +5761,7 @@
         <v>Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G185" s="1" t="str">
-        <v>Zone II / Badkulla Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H185" s="1" t="str">
         <v>23.297803</v>
@@ -5790,7 +5790,7 @@
         <v>Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G186" s="1" t="str">
-        <v>Zone I / Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H186" s="1" t="str">
         <v>23.309308</v>
@@ -5819,7 +5819,7 @@
         <v>Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G187" s="1" t="str">
-        <v>Zone I / Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H187" s="1" t="str">
         <v>23.309911</v>
@@ -5848,7 +5848,7 @@
         <v>Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G188" s="1" t="str">
-        <v>Zone I / Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H188" s="1" t="str">
         <v>23.309306</v>
@@ -5877,7 +5877,7 @@
         <v>Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G189" s="1" t="str">
-        <v>Zone II / Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H189" s="1" t="str">
         <v>23.303797</v>
@@ -5906,7 +5906,7 @@
         <v>Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
       </c>
       <c r="G190" s="1" t="str">
-        <v>Zone II / Bhayana Water Supply Scheme (Zone-I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H190" s="1" t="str">
         <v>23.308935</v>
@@ -5935,7 +5935,7 @@
         <v>Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
       </c>
       <c r="G191" s="1" t="str">
-        <v>Zone I / Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
+        <v>Zone I</v>
       </c>
       <c r="H191" s="1" t="str">
         <v>23.375529</v>
@@ -5964,7 +5964,7 @@
         <v>Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
       </c>
       <c r="G192" s="1" t="str">
-        <v>Zone I / Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
+        <v>Zone I</v>
       </c>
       <c r="H192" s="1" t="str">
         <v>23.37392</v>
@@ -5993,7 +5993,7 @@
         <v>Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
       </c>
       <c r="G193" s="1" t="str">
-        <v>Zone II / Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
+        <v>Zone II</v>
       </c>
       <c r="H193" s="1" t="str">
         <v>23.330613</v>
@@ -6022,7 +6022,7 @@
         <v>Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
       </c>
       <c r="G194" s="1" t="str">
-        <v>Zone II / Dakshinpara Water Supply Scheme (Zone-I &amp; II)  (Two Stage Pumping).</v>
+        <v>Zone II</v>
       </c>
       <c r="H194" s="1" t="str">
         <v>23.333842</v>
@@ -6051,7 +6051,7 @@
         <v>Fatepur Water Supply Scheme  (Two Stage Pumping)</v>
       </c>
       <c r="G195" s="1" t="str">
-        <v>N/A / Fatepur Water Supply Scheme  (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H195" s="1" t="str">
         <v>23.369918</v>
@@ -6080,7 +6080,7 @@
         <v>Fatepur Water Supply Scheme  (Two Stage Pumping)</v>
       </c>
       <c r="G196" s="1" t="str">
-        <v>N/A / Fatepur Water Supply Scheme  (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H196" s="1" t="str">
         <v>23.37896</v>
@@ -6109,7 +6109,7 @@
         <v>Gazna Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G197" s="1" t="str">
-        <v>N/A / Gazna Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H197" s="1" t="str">
         <v>23.364331</v>
@@ -6138,7 +6138,7 @@
         <v>Gazna Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G198" s="1" t="str">
-        <v>N/A / Gazna Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H198" s="1" t="str">
         <v>23.363604</v>
@@ -6167,7 +6167,7 @@
         <v>Gobindapur Water Supply Scheme</v>
       </c>
       <c r="G199" s="1" t="str">
-        <v>N/A / Gobindapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H199" s="1" t="str">
         <v>23.367462</v>
@@ -6196,7 +6196,7 @@
         <v>Gobindapur Water Supply Scheme</v>
       </c>
       <c r="G200" s="1" t="str">
-        <v>N/A / Gobindapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H200" s="1" t="str">
         <v>23.371864</v>
@@ -6225,7 +6225,7 @@
         <v>HudaChapra Water Supply Scheme</v>
       </c>
       <c r="G201" s="1" t="str">
-        <v>N/A / HudaChapra Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H201" s="1" t="str">
         <v>23.385473</v>
@@ -6254,7 +6254,7 @@
         <v>HudaChapra Water Supply Scheme</v>
       </c>
       <c r="G202" s="1" t="str">
-        <v>N/A / HudaChapra Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H202" s="1" t="str">
         <v>23.38549</v>
@@ -6283,7 +6283,7 @@
         <v>Itaberia Water Supply Scheme</v>
       </c>
       <c r="G203" s="1" t="str">
-        <v>N/A / Itaberia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H203" s="1" t="str">
         <v>23.397769</v>
@@ -6312,7 +6312,7 @@
         <v>Itaberia Water Supply Scheme</v>
       </c>
       <c r="G204" s="1" t="str">
-        <v>N/A / Itaberia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H204" s="1" t="str">
         <v>23.393732</v>
@@ -6341,7 +6341,7 @@
         <v>Jaypur Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G205" s="1" t="str">
-        <v>N/A / Jaypur Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H205" s="1" t="str">
         <v>23.36091</v>
@@ -6370,7 +6370,7 @@
         <v>Jaypur Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G206" s="1" t="str">
-        <v>N/A / Jaypur Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H206" s="1" t="str">
         <v>23.356494</v>
@@ -6399,7 +6399,7 @@
         <v>Mamjoani Water Supply Scheme</v>
       </c>
       <c r="G207" s="1" t="str">
-        <v>N/A / Mamjoani Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H207" s="1" t="str">
         <v>23.320639</v>
@@ -6428,7 +6428,7 @@
         <v>Mamjoani Water Supply Scheme</v>
       </c>
       <c r="G208" s="1" t="str">
-        <v>N/A / Mamjoani Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H208" s="1" t="str">
         <v>23.320761</v>
@@ -6457,7 +6457,7 @@
         <v>Muragacha Water Supply Scheme (Zone I &amp; II)</v>
       </c>
       <c r="G209" s="1" t="str">
-        <v>Zone I / Muragacha Water Supply Scheme (Zone I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H209" s="1" t="str">
         <v>23.352513</v>
@@ -6486,7 +6486,7 @@
         <v>Muragacha Water Supply Scheme (Zone I &amp; II)</v>
       </c>
       <c r="G210" s="1" t="str">
-        <v>Zone I / Muragacha Water Supply Scheme (Zone I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H210" s="1" t="str">
         <v>23.362782</v>
@@ -6515,7 +6515,7 @@
         <v>Muragacha Water Supply Scheme (Zone I &amp; II)</v>
       </c>
       <c r="G211" s="1" t="str">
-        <v>Zone II / Muragacha Water Supply Scheme (Zone I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H211" s="1" t="str">
         <v>23.344258</v>
@@ -6544,7 +6544,7 @@
         <v>Muragacha Water Supply Scheme (Zone I &amp; II)</v>
       </c>
       <c r="G212" s="1" t="str">
-        <v>Zone II / Muragacha Water Supply Scheme (Zone I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H212" s="1" t="str">
         <v>23.344076</v>
@@ -6573,7 +6573,7 @@
         <v>Nutangram Water Supply Scheme</v>
       </c>
       <c r="G213" s="1" t="str">
-        <v>N/A / Nutangram Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H213" s="1" t="str">
         <v>23.395692</v>
@@ -6602,7 +6602,7 @@
         <v>Nutangram Water Supply Scheme</v>
       </c>
       <c r="G214" s="1" t="str">
-        <v>N/A / Nutangram Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H214" s="1" t="str">
         <v>23.396088</v>
@@ -6631,7 +6631,7 @@
         <v>Pairadanga Water Supply Scheme</v>
       </c>
       <c r="G215" s="1" t="str">
-        <v>N/A / Pairadanga Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H215" s="1" t="str">
         <v>23.363084</v>
@@ -6660,7 +6660,7 @@
         <v>Pairadanga Water Supply Scheme</v>
       </c>
       <c r="G216" s="1" t="str">
-        <v>N/A / Pairadanga Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H216" s="1" t="str">
         <v>23.362993</v>
@@ -6689,7 +6689,7 @@
         <v>Purba Khamar Simulia Water Supply Scheme</v>
       </c>
       <c r="G217" s="1" t="str">
-        <v>N/A / Purba Khamar Simulia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H217" s="1" t="str">
         <v>23.307234</v>
@@ -6718,7 +6718,7 @@
         <v>Purba Khamar Simulia Water Supply Scheme</v>
       </c>
       <c r="G218" s="1" t="str">
-        <v>N/A / Purba Khamar Simulia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H218" s="1" t="str">
         <v>23.323641</v>
@@ -6747,7 +6747,7 @@
         <v>Ramnagar Water Supply Scheme</v>
       </c>
       <c r="G219" s="1" t="str">
-        <v>N/A / Ramnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H219" s="1" t="str">
         <v>23.317406</v>
@@ -6776,7 +6776,7 @@
         <v>Ramnagar Water Supply Scheme</v>
       </c>
       <c r="G220" s="1" t="str">
-        <v>N/A / Ramnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H220" s="1" t="str">
         <v>23.318437</v>
@@ -6805,7 +6805,7 @@
         <v>Bablari Dewanganj Water Supply Scheme</v>
       </c>
       <c r="G221" s="1" t="str">
-        <v>N/A / Bablari Dewanganj Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H221" s="1" t="str">
         <v>23.426612</v>
@@ -6834,7 +6834,7 @@
         <v>Bablari Dewanganj Water Supply Scheme</v>
       </c>
       <c r="G222" s="1" t="str">
-        <v>N/A / Bablari Dewanganj Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H222" s="1" t="str">
         <v>23.425675</v>
@@ -6863,7 +6863,7 @@
         <v>Bankar Dhopadi Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G223" s="1" t="str">
-        <v>N/A / Bankar Dhopadi Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H223" s="1" t="str">
         <v>23.368074</v>
@@ -6892,7 +6892,7 @@
         <v>Bankar Dhopadi Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G224" s="1" t="str">
-        <v>N/A / Bankar Dhopadi Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H224" s="1" t="str">
         <v>23.370003</v>
@@ -6921,7 +6921,7 @@
         <v>Gadigachha Water Supply Scheme</v>
       </c>
       <c r="G225" s="1" t="str">
-        <v>N/A / Gadigachha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H225" s="1" t="str">
         <v>23.414253</v>
@@ -6950,7 +6950,7 @@
         <v>Gadigachha Water Supply Scheme</v>
       </c>
       <c r="G226" s="1" t="str">
-        <v>N/A / Gadigachha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H226" s="1" t="str">
         <v>23.412797</v>
@@ -6979,7 +6979,7 @@
         <v>Mahisura Water Supply Scheme</v>
       </c>
       <c r="G227" s="1" t="str">
-        <v>N/A / Mahisura Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H227" s="1" t="str">
         <v>23.369158</v>
@@ -7008,7 +7008,7 @@
         <v>Mahisura Water Supply Scheme</v>
       </c>
       <c r="G228" s="1" t="str">
-        <v>N/A / Mahisura Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H228" s="1" t="str">
         <v>23.366736</v>
@@ -7037,7 +7037,7 @@
         <v>Pansila Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G229" s="1" t="str">
-        <v>N/A / Pansila Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H229" s="1" t="str">
         <v>23.370432</v>
@@ -7066,7 +7066,7 @@
         <v>Pansila Water Supply Scheme (Two Stage Pumping)</v>
       </c>
       <c r="G230" s="1" t="str">
-        <v>N/A / Pansila Water Supply Scheme (Two Stage Pumping)</v>
+        <v>N/A</v>
       </c>
       <c r="H230" s="1" t="str">
         <v>23.372927</v>
@@ -7095,7 +7095,7 @@
         <v>Tiorkhali Water Supply Scheme</v>
       </c>
       <c r="G231" s="1" t="str">
-        <v>N/A / Tiorkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H231" s="1" t="str">
         <v>23.417182</v>
@@ -7124,7 +7124,7 @@
         <v>Tiorkhali Water Supply Scheme</v>
       </c>
       <c r="G232" s="1" t="str">
-        <v>N/A / Tiorkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H232" s="1" t="str">
         <v>23.41767</v>
@@ -7153,7 +7153,7 @@
         <v>Tiorkhali Water Supply Scheme</v>
       </c>
       <c r="G233" s="1" t="str">
-        <v>N/A / Tiorkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H233" s="1" t="str">
         <v>23.419057</v>
@@ -7182,7 +7182,7 @@
         <v>Anulia Water Supply Scheme</v>
       </c>
       <c r="G234" s="1" t="str">
-        <v>N/A / Anulia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H234" s="1" t="str">
         <v>23.154205</v>
@@ -7211,7 +7211,7 @@
         <v>Anulia Water Supply Scheme</v>
       </c>
       <c r="G235" s="1" t="str">
-        <v>N/A / Anulia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H235" s="1" t="str">
         <v>23.155827</v>
@@ -7240,7 +7240,7 @@
         <v>Bara Kulta Water Supply Scheme</v>
       </c>
       <c r="G236" s="1" t="str">
-        <v>N/A / Bara Kulta Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H236" s="1" t="str">
         <v>23.293407</v>
@@ -7269,7 +7269,7 @@
         <v>Bara Kulta Water Supply Scheme</v>
       </c>
       <c r="G237" s="1" t="str">
-        <v>N/A / Bara Kulta Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H237" s="1" t="str">
         <v>23.282177</v>
@@ -7298,7 +7298,7 @@
         <v>Birnagar Water Supply Scheme</v>
       </c>
       <c r="G238" s="1" t="str">
-        <v>N/A / Birnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H238" s="1" t="str">
         <v>23.249212</v>
@@ -7327,7 +7327,7 @@
         <v>Birnagar Water Supply Scheme</v>
       </c>
       <c r="G239" s="1" t="str">
-        <v>N/A / Birnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H239" s="1" t="str">
         <v>23.252566</v>
@@ -7356,7 +7356,7 @@
         <v>Par Niamatpur Water Supply Scheme</v>
       </c>
       <c r="G240" s="1" t="str">
-        <v>N/A / Par Niamatpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H240" s="1" t="str">
         <v>23.154448</v>
@@ -7385,7 +7385,7 @@
         <v>Par Niamatpur Water Supply Scheme</v>
       </c>
       <c r="G241" s="1" t="str">
-        <v>N/A / Par Niamatpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H241" s="1" t="str">
         <v>23.151798</v>
@@ -7414,7 +7414,7 @@
         <v>Paschim Noapara Water Supply Scheme</v>
       </c>
       <c r="G242" s="1" t="str">
-        <v>N/A / Paschim Noapara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H242" s="1" t="str">
         <v>23.148714</v>
@@ -7443,7 +7443,7 @@
         <v>Paschim Noapara Water Supply Scheme</v>
       </c>
       <c r="G243" s="1" t="str">
-        <v>N/A / Paschim Noapara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H243" s="1" t="str">
         <v>23.15165</v>
@@ -7472,7 +7472,7 @@
         <v>Radhakantapur Water Supply Scheme</v>
       </c>
       <c r="G244" s="1" t="str">
-        <v>N/A / Radhakantapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H244" s="1" t="str">
         <v>23.247624</v>
@@ -7501,7 +7501,7 @@
         <v>Radhakantapur Water Supply Scheme</v>
       </c>
       <c r="G245" s="1" t="str">
-        <v>N/A / Radhakantapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H245" s="1" t="str">
         <v>23.24735</v>
@@ -7530,7 +7530,7 @@
         <v>Tarapur Water Supply Scheme</v>
       </c>
       <c r="G246" s="1" t="str">
-        <v>N/A / Tarapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H246" s="1" t="str">
         <v>23.192596</v>
@@ -7559,7 +7559,7 @@
         <v>Tarapur Water Supply Scheme</v>
       </c>
       <c r="G247" s="1" t="str">
-        <v>N/A / Tarapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H247" s="1" t="str">
         <v>23.191192</v>
@@ -7588,7 +7588,7 @@
         <v>Ukhil Nara Water Supply Scheme</v>
       </c>
       <c r="G248" s="1" t="str">
-        <v>Zone I / Ukhil Nara Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H248" s="1" t="str">
         <v>23.130656</v>
@@ -7617,7 +7617,7 @@
         <v>Ukhil Nara Water Supply Scheme</v>
       </c>
       <c r="G249" s="1" t="str">
-        <v>Zone I / Ukhil Nara Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H249" s="1" t="str">
         <v>23.127689</v>
@@ -7646,7 +7646,7 @@
         <v>Ukhil Nara Water Supply Scheme</v>
       </c>
       <c r="G250" s="1" t="str">
-        <v>Zone II / Ukhil Nara Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H250" s="1" t="str">
         <v>23.130833</v>
@@ -7675,7 +7675,7 @@
         <v>Ukhil Nara Water Supply Scheme</v>
       </c>
       <c r="G251" s="1" t="str">
-        <v>Zone II / Ukhil Nara Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H251" s="1" t="str">
         <v>23.124663</v>
@@ -7704,7 +7704,7 @@
         <v>Habibpur Water Supply Scheme</v>
       </c>
       <c r="G252" s="1" t="str">
-        <v>N/A / Habibpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H252" s="1" t="str">
         <v>23.192638</v>
@@ -7733,7 +7733,7 @@
         <v>Habibpur Water Supply Scheme</v>
       </c>
       <c r="G253" s="1" t="str">
-        <v>N/A / Habibpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H253" s="1" t="str">
         <v>0.00</v>
@@ -7762,7 +7762,7 @@
         <v>Kalaighata Water Supply Scheme</v>
       </c>
       <c r="G254" s="1" t="str">
-        <v>N/A / Kalaighata Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H254" s="1" t="str">
         <v>23.174034</v>
@@ -7791,7 +7791,7 @@
         <v>Kalaighata Water Supply Scheme</v>
       </c>
       <c r="G255" s="1" t="str">
-        <v>N/A / Kalaighata Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H255" s="1" t="str">
         <v>23.17335</v>
@@ -7820,7 +7820,7 @@
         <v>Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G256" s="1" t="str">
-        <v>Zone I / Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H256" s="1" t="str">
         <v>23.219671</v>
@@ -7849,7 +7849,7 @@
         <v>Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G257" s="1" t="str">
-        <v>Zone I / Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H257" s="1" t="str">
         <v>23.217814</v>
@@ -7878,7 +7878,7 @@
         <v>Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G258" s="1" t="str">
-        <v>Zone II / Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H258" s="1" t="str">
         <v>23.21558</v>
@@ -7907,7 +7907,7 @@
         <v>Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G259" s="1" t="str">
-        <v>Zone II / Kamgachi (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H259" s="1" t="str">
         <v>23.21417</v>
@@ -7936,7 +7936,7 @@
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G260" s="1" t="str">
-        <v>Zone I / Aranghata Narayanpur Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H260" s="1" t="str">
         <v>23.269293</v>
@@ -7965,7 +7965,7 @@
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G261" s="1" t="str">
-        <v>Zone I / Aranghata Narayanpur Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H261" s="1" t="str">
         <v>23.273866</v>
@@ -7994,7 +7994,7 @@
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G262" s="1" t="str">
-        <v>Zone I / Aranghata Narayanpur Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H262" s="1" t="str">
         <v>23.264042</v>
@@ -8023,7 +8023,7 @@
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G263" s="1" t="str">
-        <v>Zone II / Aranghata Narayanpur Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H263" s="1" t="str">
         <v>23.269883</v>
@@ -8052,7 +8052,7 @@
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G264" s="1" t="str">
-        <v>Zone II / Aranghata Narayanpur Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H264" s="1" t="str">
         <v>23.273482</v>
@@ -8081,7 +8081,7 @@
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G265" s="1" t="str">
-        <v>Zone II / Aranghata Narayanpur Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H265" s="1" t="str">
         <v>23.272059</v>
@@ -8110,7 +8110,7 @@
         <v>Aranghata Narayanpur Water Supply Scheme</v>
       </c>
       <c r="G266" s="1" t="str">
-        <v>Zone II / Aranghata Narayanpur Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H266" s="1" t="str">
         <v>23.263548</v>
@@ -8139,7 +8139,7 @@
         <v>Debagram Water Supply Scheme</v>
       </c>
       <c r="G267" s="1" t="str">
-        <v>N/A / Debagram Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H267" s="1" t="str">
         <v>23.166815</v>
@@ -8168,7 +8168,7 @@
         <v>Debagram Water Supply Scheme</v>
       </c>
       <c r="G268" s="1" t="str">
-        <v>N/A / Debagram Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H268" s="1" t="str">
         <v>23.17318</v>
@@ -8197,7 +8197,7 @@
         <v>Debagram Water Supply Scheme</v>
       </c>
       <c r="G269" s="1" t="str">
-        <v>N/A / Debagram Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H269" s="1" t="str">
         <v>23.167904</v>
@@ -8226,7 +8226,7 @@
         <v>Debagram Water Supply Scheme</v>
       </c>
       <c r="G270" s="1" t="str">
-        <v>N/A / Debagram Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H270" s="1" t="str">
         <v>23.161884</v>
@@ -8255,7 +8255,7 @@
         <v>Dhantala Water Supply Scheme</v>
       </c>
       <c r="G271" s="1" t="str">
-        <v>N/A / Dhantala Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H271" s="1" t="str">
         <v>23.202879</v>
@@ -8284,7 +8284,7 @@
         <v>Dhantala Water Supply Scheme</v>
       </c>
       <c r="G272" s="1" t="str">
-        <v>N/A / Dhantala Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H272" s="1" t="str">
         <v>23.1998</v>
@@ -8313,7 +8313,7 @@
         <v>Dhantala Water Supply Scheme</v>
       </c>
       <c r="G273" s="1" t="str">
-        <v>N/A / Dhantala Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H273" s="1" t="str">
         <v>23.205165</v>
@@ -8342,7 +8342,7 @@
         <v>Dubli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G274" s="1" t="str">
-        <v>Zone I / Dubli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H274" s="1" t="str">
         <v>23.122592</v>
@@ -8371,7 +8371,7 @@
         <v>Dubli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G275" s="1" t="str">
-        <v>Zone I / Dubli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H275" s="1" t="str">
         <v>23.124017</v>
@@ -8400,7 +8400,7 @@
         <v>Dubli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G276" s="1" t="str">
-        <v>Zone I / Dubli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H276" s="1" t="str">
         <v>23.128181</v>
@@ -8429,7 +8429,7 @@
         <v>Dubli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G277" s="1" t="str">
-        <v>Zone II / Dubli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H277" s="1" t="str">
         <v>23.117752</v>
@@ -8458,7 +8458,7 @@
         <v>Dubli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G278" s="1" t="str">
-        <v>Zone II / Dubli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H278" s="1" t="str">
         <v>23.11997</v>
@@ -8487,7 +8487,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G279" s="1" t="str">
-        <v>Zone I / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H279" s="1" t="str">
         <v>23.254932</v>
@@ -8516,7 +8516,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G280" s="1" t="str">
-        <v>Zone I / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H280" s="1" t="str">
         <v>23.254402</v>
@@ -8545,7 +8545,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G281" s="1" t="str">
-        <v>Zone I / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H281" s="1" t="str">
         <v>23.251177</v>
@@ -8574,7 +8574,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G282" s="1" t="str">
-        <v>Zone II / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H282" s="1" t="str">
         <v>23.243168</v>
@@ -8603,7 +8603,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G283" s="1" t="str">
-        <v>Zone II / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H283" s="1" t="str">
         <v>23.239968</v>
@@ -8632,7 +8632,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G284" s="1" t="str">
-        <v>Zone II / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H284" s="1" t="str">
         <v>23.238903</v>
@@ -8661,7 +8661,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G285" s="1" t="str">
-        <v>Zone II / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H285" s="1" t="str">
         <v>23.231396</v>
@@ -8690,7 +8690,7 @@
         <v>Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G286" s="1" t="str">
-        <v>Zone II / Duttaphulia (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H286" s="1" t="str">
         <v>23.22781</v>
@@ -8719,7 +8719,7 @@
         <v>Gangnapur Water Supply Scheme</v>
       </c>
       <c r="G287" s="1" t="str">
-        <v>N/A / Gangnapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H287" s="1" t="str">
         <v>23.136952</v>
@@ -8748,7 +8748,7 @@
         <v>Gangnapur Water Supply Scheme</v>
       </c>
       <c r="G288" s="1" t="str">
-        <v>N/A / Gangnapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H288" s="1" t="str">
         <v>23.136349</v>
@@ -8777,7 +8777,7 @@
         <v>Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G289" s="1" t="str">
-        <v>Zone I / Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H289" s="1" t="str">
         <v>23.234653</v>
@@ -8806,7 +8806,7 @@
         <v>Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G290" s="1" t="str">
-        <v>Zone I / Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H290" s="1" t="str">
         <v>23.23269</v>
@@ -8835,7 +8835,7 @@
         <v>Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G291" s="1" t="str">
-        <v>Zone II / Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H291" s="1" t="str">
         <v>23.214746</v>
@@ -8864,7 +8864,7 @@
         <v>Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G292" s="1" t="str">
-        <v>Zone II / Goalsalua (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H292" s="1" t="str">
         <v>23.220227</v>
@@ -8893,7 +8893,7 @@
         <v>Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G293" s="1" t="str">
-        <v>Zone I / Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H293" s="1" t="str">
         <v>0.00</v>
@@ -8922,7 +8922,7 @@
         <v>Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G294" s="1" t="str">
-        <v>Zone I / Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H294" s="1" t="str">
         <v>23.219128</v>
@@ -8951,7 +8951,7 @@
         <v>Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G295" s="1" t="str">
-        <v>Zone II / Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H295" s="1" t="str">
         <v>23.188776</v>
@@ -8980,7 +8980,7 @@
         <v>Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G296" s="1" t="str">
-        <v>Zone II / Halalpur Krishnapur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H296" s="1" t="str">
         <v>23.190709</v>
@@ -9009,7 +9009,7 @@
         <v>Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G297" s="1" t="str">
-        <v>Zone I / Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H297" s="1" t="str">
         <v>23.203809</v>
@@ -9038,7 +9038,7 @@
         <v>Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G298" s="1" t="str">
-        <v>Zone I / Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H298" s="1" t="str">
         <v>23.199479</v>
@@ -9067,7 +9067,7 @@
         <v>Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G299" s="1" t="str">
-        <v>Zone I / Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H299" s="1" t="str">
         <v>23.208421</v>
@@ -9096,7 +9096,7 @@
         <v>Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G300" s="1" t="str">
-        <v>Zone II / Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H300" s="1" t="str">
         <v>23.189742</v>
@@ -9125,7 +9125,7 @@
         <v>Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G301" s="1" t="str">
-        <v>Zone II / Kamalpur (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H301" s="1" t="str">
         <v>23.189615</v>
@@ -9154,7 +9154,7 @@
         <v>Magurkhali Water Supply Scheme</v>
       </c>
       <c r="G302" s="1" t="str">
-        <v>N/A / Magurkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H302" s="1" t="str">
         <v>23.164573</v>
@@ -9183,7 +9183,7 @@
         <v>Magurkhali Water Supply Scheme</v>
       </c>
       <c r="G303" s="1" t="str">
-        <v>N/A / Magurkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H303" s="1" t="str">
         <v>23.165746</v>
@@ -9212,7 +9212,7 @@
         <v>Magurkhali Water Supply Scheme</v>
       </c>
       <c r="G304" s="1" t="str">
-        <v>N/A / Magurkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H304" s="1" t="str">
         <v>23.175833</v>
@@ -9241,7 +9241,7 @@
         <v>Matikumra Water Supply Scheme</v>
       </c>
       <c r="G305" s="1" t="str">
-        <v>N/A / Matikumra Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H305" s="1" t="str">
         <v>23.169738</v>
@@ -9270,7 +9270,7 @@
         <v>Matikumra Water Supply Scheme</v>
       </c>
       <c r="G306" s="1" t="str">
-        <v>N/A / Matikumra Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H306" s="1" t="str">
         <v>23.170055</v>
@@ -9299,7 +9299,7 @@
         <v>Matikumra Water Supply Scheme</v>
       </c>
       <c r="G307" s="1" t="str">
-        <v>N/A / Matikumra Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H307" s="1" t="str">
         <v>23.169189</v>
@@ -9328,7 +9328,7 @@
         <v>Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G308" s="1" t="str">
-        <v>Zone I / Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H308" s="1" t="str">
         <v>23.141904</v>
@@ -9357,7 +9357,7 @@
         <v>Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G309" s="1" t="str">
-        <v>Zone I / Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H309" s="1" t="str">
         <v>23.141903</v>
@@ -9386,7 +9386,7 @@
         <v>Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G310" s="1" t="str">
-        <v>Zone I / Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H310" s="1" t="str">
         <v>23.144819</v>
@@ -9415,7 +9415,7 @@
         <v>Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G311" s="1" t="str">
-        <v>Zone I / Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H311" s="1" t="str">
         <v>23.143645</v>
@@ -9444,7 +9444,7 @@
         <v>Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G312" s="1" t="str">
-        <v>Zone II / Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H312" s="1" t="str">
         <v>23.136019</v>
@@ -9473,7 +9473,7 @@
         <v>Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
       </c>
       <c r="G313" s="1" t="str">
-        <v>Zone II / Naserkuli (Z-I &amp; II) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H313" s="1" t="str">
         <v>23.117252</v>
@@ -9502,7 +9502,7 @@
         <v>Baganchara Water Supply Scheme</v>
       </c>
       <c r="G314" s="1" t="str">
-        <v>N/A / Baganchara Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H314" s="1" t="str">
         <v>23.28224</v>
@@ -9531,7 +9531,7 @@
         <v>Beharia Water Supply Scheme</v>
       </c>
       <c r="G315" s="1" t="str">
-        <v>N/A / Beharia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H315" s="1" t="str">
         <v>23.223453</v>
@@ -9560,7 +9560,7 @@
         <v>Beharia Water Supply Scheme</v>
       </c>
       <c r="G316" s="1" t="str">
-        <v>N/A / Beharia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H316" s="1" t="str">
         <v>23.221999</v>
@@ -9589,7 +9589,7 @@
         <v>Beharia Water Supply Scheme</v>
       </c>
       <c r="G317" s="1" t="str">
-        <v>N/A / Beharia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H317" s="1" t="str">
         <v>23.228135</v>
@@ -9618,7 +9618,7 @@
         <v>Boalia Water Supply Scheme</v>
       </c>
       <c r="G318" s="1" t="str">
-        <v>N/A / Boalia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H318" s="1" t="str">
         <v>23.288944</v>
@@ -9647,7 +9647,7 @@
         <v>Boalia Water Supply Scheme</v>
       </c>
       <c r="G319" s="1" t="str">
-        <v>N/A / Boalia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H319" s="1" t="str">
         <v>23.294319</v>
@@ -9676,7 +9676,7 @@
         <v>Boalia Water Supply Scheme</v>
       </c>
       <c r="G320" s="1" t="str">
-        <v>N/A / Boalia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H320" s="1" t="str">
         <v>23.282402</v>
@@ -9705,7 +9705,7 @@
         <v>Fulia Township Water Supply Scheme</v>
       </c>
       <c r="G321" s="1" t="str">
-        <v>N/A / Fulia Township Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H321" s="1" t="str">
         <v>23.236084</v>
@@ -9734,7 +9734,7 @@
         <v>Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G322" s="1" t="str">
-        <v>Zone I / Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H322" s="1" t="str">
         <v>23.28785</v>
@@ -9763,7 +9763,7 @@
         <v>Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G323" s="1" t="str">
-        <v>Zone I / Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H323" s="1" t="str">
         <v>23.285522</v>
@@ -9792,7 +9792,7 @@
         <v>Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G324" s="1" t="str">
-        <v>Zone II / Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H324" s="1" t="str">
         <v>23.264337</v>
@@ -9821,7 +9821,7 @@
         <v>Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G325" s="1" t="str">
-        <v>Zone II / Gayespur Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H325" s="1" t="str">
         <v>23.259013</v>
@@ -9850,7 +9850,7 @@
         <v>Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G326" s="1" t="str">
-        <v>Zone I / Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H326" s="1" t="str">
         <v>23.268073</v>
@@ -9879,7 +9879,7 @@
         <v>Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G327" s="1" t="str">
-        <v>Zone I / Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H327" s="1" t="str">
         <v>23.268647</v>
@@ -9908,7 +9908,7 @@
         <v>Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G328" s="1" t="str">
-        <v>Zone II / Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H328" s="1" t="str">
         <v>23.239188</v>
@@ -9937,7 +9937,7 @@
         <v>Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G329" s="1" t="str">
-        <v>Zone II / Ghoralia  Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H329" s="1" t="str">
         <v>23.236814</v>
@@ -9966,7 +9966,7 @@
         <v>Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G330" s="1" t="str">
-        <v>Zone I / Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H330" s="1" t="str">
         <v>23.220082</v>
@@ -9995,7 +9995,7 @@
         <v>Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G331" s="1" t="str">
-        <v>Zone I / Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H331" s="1" t="str">
         <v>23.222041</v>
@@ -10024,7 +10024,7 @@
         <v>Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G332" s="1" t="str">
-        <v>Zone II / Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H332" s="1" t="str">
         <v>23.232555</v>
@@ -10053,7 +10053,7 @@
         <v>Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
       </c>
       <c r="G333" s="1" t="str">
-        <v>Zone II / Goalpur Water Supply Scheme  (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H333" s="1" t="str">
         <v>23.227049</v>
@@ -10082,7 +10082,7 @@
         <v>Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
       </c>
       <c r="G334" s="1" t="str">
-        <v>Zone I / Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
+        <v>Zone I</v>
       </c>
       <c r="H334" s="1" t="str">
         <v>23.287212</v>
@@ -10111,7 +10111,7 @@
         <v>Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
       </c>
       <c r="G335" s="1" t="str">
-        <v>Zone I / Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
+        <v>Zone I</v>
       </c>
       <c r="H335" s="1" t="str">
         <v>23.288307</v>
@@ -10140,7 +10140,7 @@
         <v>Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
       </c>
       <c r="G336" s="1" t="str">
-        <v>Zone I / Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
+        <v>Zone I</v>
       </c>
       <c r="H336" s="1" t="str">
         <v>23.28404</v>
@@ -10169,7 +10169,7 @@
         <v>Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
       </c>
       <c r="G337" s="1" t="str">
-        <v>Zone II / Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
+        <v>Zone II</v>
       </c>
       <c r="H337" s="1" t="str">
         <v>23.29255</v>
@@ -10198,7 +10198,7 @@
         <v>Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
       </c>
       <c r="G338" s="1" t="str">
-        <v>Zone II / Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
+        <v>Zone II</v>
       </c>
       <c r="H338" s="1" t="str">
         <v>23.287991</v>
@@ -10227,7 +10227,7 @@
         <v>Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
       </c>
       <c r="G339" s="1" t="str">
-        <v>Zone II / Gobindapur Water Supply Scheme  (Z-I &amp; II )</v>
+        <v>Zone II</v>
       </c>
       <c r="H339" s="1" t="str">
         <v>23.298762</v>
@@ -10256,7 +10256,7 @@
         <v>Nabla Water Supply Scheme</v>
       </c>
       <c r="G340" s="1" t="str">
-        <v>N/A / Nabla Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H340" s="1" t="str">
         <v>23.207483</v>
@@ -10285,7 +10285,7 @@
         <v>Nabla Water Supply Scheme</v>
       </c>
       <c r="G341" s="1" t="str">
-        <v>N/A / Nabla Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H341" s="1" t="str">
         <v>23.203762</v>
@@ -10314,7 +10314,7 @@
         <v>Nrisinghapur Water Supply Scheme</v>
       </c>
       <c r="G342" s="1" t="str">
-        <v>N/A / Nrisinghapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H342" s="1" t="str">
         <v>23.252001</v>
@@ -10343,7 +10343,7 @@
         <v>Nrisinghapur Water Supply Scheme</v>
       </c>
       <c r="G343" s="1" t="str">
-        <v>N/A / Nrisinghapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H343" s="1" t="str">
         <v>23.252001</v>
@@ -10372,7 +10372,7 @@
         <v>Nrisinghapur Water Supply Scheme</v>
       </c>
       <c r="G344" s="1" t="str">
-        <v>N/A / Nrisinghapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H344" s="1" t="str">
         <v>23.247582</v>
@@ -10401,7 +10401,7 @@
         <v>Nrisinghapur Water Supply Scheme</v>
       </c>
       <c r="G345" s="1" t="str">
-        <v>N/A / Nrisinghapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H345" s="1" t="str">
         <v>23.247565</v>
@@ -10430,7 +10430,7 @@
         <v>Nrisinghapur Water Supply Scheme</v>
       </c>
       <c r="G346" s="1" t="str">
-        <v>N/A / Nrisinghapur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H346" s="1" t="str">
         <v>23.250735</v>
@@ -10459,7 +10459,7 @@
         <v>Saguna Water Supply Scheme</v>
       </c>
       <c r="G347" s="1" t="str">
-        <v>N/A / Saguna Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H347" s="1" t="str">
         <v>23.312133</v>
@@ -10488,7 +10488,7 @@
         <v>Saguna Water Supply Scheme</v>
       </c>
       <c r="G348" s="1" t="str">
-        <v>N/A / Saguna Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H348" s="1" t="str">
         <v>23.3091</v>
@@ -10517,7 +10517,7 @@
         <v>Bansbaria Water Supply Scheme</v>
       </c>
       <c r="G349" s="1" t="str">
-        <v>N/A / Bansbaria Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H349" s="1" t="str">
         <v>23.438973</v>
@@ -10546,7 +10546,7 @@
         <v>Bansbaria Water Supply Scheme</v>
       </c>
       <c r="G350" s="1" t="str">
-        <v>N/A / Bansbaria Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H350" s="1" t="str">
         <v>23.436855</v>
@@ -10575,7 +10575,7 @@
         <v>Bhaluka Water Supply Scheme</v>
       </c>
       <c r="G351" s="1" t="str">
-        <v>N/A / Bhaluka Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H351" s="1" t="str">
         <v>23.351356</v>
@@ -10604,7 +10604,7 @@
         <v>Bhaluka Water Supply Scheme</v>
       </c>
       <c r="G352" s="1" t="str">
-        <v>N/A / Bhaluka Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H352" s="1" t="str">
         <v>23.353322</v>
@@ -10633,7 +10633,7 @@
         <v>Bhandar Khola Water Supply Scheme</v>
       </c>
       <c r="G353" s="1" t="str">
-        <v>N/A / Bhandar Khola Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H353" s="1" t="str">
         <v>23.439877</v>
@@ -10662,7 +10662,7 @@
         <v>Bhandar Khola Water Supply Scheme</v>
       </c>
       <c r="G354" s="1" t="str">
-        <v>N/A / Bhandar Khola Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H354" s="1" t="str">
         <v>23.445602</v>
@@ -10691,7 +10691,7 @@
         <v>Bhimpur Water Supply Scheme</v>
       </c>
       <c r="G355" s="1" t="str">
-        <v>N/A / Bhimpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H355" s="1" t="str">
         <v>23.425435</v>
@@ -10720,7 +10720,7 @@
         <v>Bhimpur Water Supply Scheme</v>
       </c>
       <c r="G356" s="1" t="str">
-        <v>N/A / Bhimpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H356" s="1" t="str">
         <v>23.428577</v>
@@ -10749,7 +10749,7 @@
         <v>Chandpur Water Supply Scheme</v>
       </c>
       <c r="G357" s="1" t="str">
-        <v>N/A / Chandpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H357" s="1" t="str">
         <v>23.471644</v>
@@ -10778,7 +10778,7 @@
         <v>Chandpur Water Supply Scheme</v>
       </c>
       <c r="G358" s="1" t="str">
-        <v>N/A / Chandpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H358" s="1" t="str">
         <v>23.466672</v>
@@ -10807,7 +10807,7 @@
         <v>Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G359" s="1" t="str">
-        <v>Zone I / Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H359" s="1" t="str">
         <v>23.408317</v>
@@ -10836,7 +10836,7 @@
         <v>Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G360" s="1" t="str">
-        <v>Zone I / Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H360" s="1" t="str">
         <v>23.412133</v>
@@ -10865,7 +10865,7 @@
         <v>Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G361" s="1" t="str">
-        <v>Zone II / Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H361" s="1" t="str">
         <v>23.403219</v>
@@ -10894,7 +10894,7 @@
         <v>Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G362" s="1" t="str">
-        <v>Zone II / Dafarpota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H362" s="1" t="str">
         <v>23.401784</v>
@@ -10923,7 +10923,7 @@
         <v>Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G363" s="1" t="str">
-        <v>Zone I / Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H363" s="1" t="str">
         <v>23.355448</v>
@@ -10952,7 +10952,7 @@
         <v>Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G364" s="1" t="str">
-        <v>Zone I / Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H364" s="1" t="str">
         <v>23.352753</v>
@@ -10981,7 +10981,7 @@
         <v>Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G365" s="1" t="str">
-        <v>Zone II / Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H365" s="1" t="str">
         <v>23.357435</v>
@@ -11010,7 +11010,7 @@
         <v>Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G366" s="1" t="str">
-        <v>Zone II / Dakshin Jhitkipota Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H366" s="1" t="str">
         <v>23.358143</v>
@@ -11039,7 +11039,7 @@
         <v>Damodarkhali Water Supply Scheme</v>
       </c>
       <c r="G367" s="1" t="str">
-        <v>N/A / Damodarkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H367" s="1" t="str">
         <v>23.455415</v>
@@ -11068,7 +11068,7 @@
         <v>Damodarkhali Water Supply Scheme</v>
       </c>
       <c r="G368" s="1" t="str">
-        <v>N/A / Damodarkhali Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H368" s="1" t="str">
         <v>23.455382</v>
@@ -11097,7 +11097,7 @@
         <v>Dignagar Water Supply Scheme</v>
       </c>
       <c r="G369" s="1" t="str">
-        <v>N/A / Dignagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H369" s="1" t="str">
         <v>23.341628</v>
@@ -11126,7 +11126,7 @@
         <v>Dignagar Water Supply Scheme</v>
       </c>
       <c r="G370" s="1" t="str">
-        <v>N/A / Dignagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H370" s="1" t="str">
         <v>23.327</v>
@@ -11155,7 +11155,7 @@
         <v>Digri Water Supply Scheme</v>
       </c>
       <c r="G371" s="1" t="str">
-        <v>N/A / Digri Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H371" s="1" t="str">
         <v>23.454459</v>
@@ -11184,7 +11184,7 @@
         <v>Digri Water Supply Scheme</v>
       </c>
       <c r="G372" s="1" t="str">
-        <v>N/A / Digri Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H372" s="1" t="str">
         <v>23.451394</v>
@@ -11213,7 +11213,7 @@
         <v>Gobrapota &amp; Naldaha Water Supply Scheme</v>
       </c>
       <c r="G373" s="1" t="str">
-        <v>N/A / Gobrapota &amp; Naldaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H373" s="1" t="str">
         <v>23.423394</v>
@@ -11242,7 +11242,7 @@
         <v>Gobrapota &amp; Naldaha Water Supply Scheme</v>
       </c>
       <c r="G374" s="1" t="str">
-        <v>N/A / Gobrapota &amp; Naldaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H374" s="1" t="str">
         <v>23.424118</v>
@@ -11271,7 +11271,7 @@
         <v>Itla Water Supply Scheme</v>
       </c>
       <c r="G375" s="1" t="str">
-        <v>N/A / Itla Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H375" s="1" t="str">
         <v>23.35271</v>
@@ -11300,7 +11300,7 @@
         <v>Itla Water Supply Scheme</v>
       </c>
       <c r="G376" s="1" t="str">
-        <v>N/A / Itla Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H376" s="1" t="str">
         <v>23.352503</v>
@@ -11329,7 +11329,7 @@
         <v>Joania Water Supply Scheme</v>
       </c>
       <c r="G377" s="1" t="str">
-        <v>N/A / Joania Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H377" s="1" t="str">
         <v>23.334612</v>
@@ -11358,7 +11358,7 @@
         <v>Joania Water Supply Scheme</v>
       </c>
       <c r="G378" s="1" t="str">
-        <v>N/A / Joania Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H378" s="1" t="str">
         <v>23.328843</v>
@@ -11387,7 +11387,7 @@
         <v>Krishnagar Water Supply Scheme</v>
       </c>
       <c r="G379" s="1" t="str">
-        <v>N/A / Krishnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H379" s="1" t="str">
         <v>23.3789</v>
@@ -11416,7 +11416,7 @@
         <v>Krishnagar Water Supply Scheme</v>
       </c>
       <c r="G380" s="1" t="str">
-        <v>N/A / Krishnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H380" s="1" t="str">
         <v>23.378924</v>
@@ -11445,7 +11445,7 @@
         <v>Kulgachi Water Supply Scheme</v>
       </c>
       <c r="G381" s="1" t="str">
-        <v>N/A / Kulgachi Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H381" s="1" t="str">
         <v>23.425265</v>
@@ -11474,7 +11474,7 @@
         <v>Kulgachi Water Supply Scheme</v>
       </c>
       <c r="G382" s="1" t="str">
-        <v>N/A / Kulgachi Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H382" s="1" t="str">
         <v>23.425435</v>
@@ -11503,7 +11503,7 @@
         <v>Mahishnengra Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G383" s="1" t="str">
-        <v>Zone I / Mahishnengra Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H383" s="1" t="str">
         <v>23.388606</v>
@@ -11532,7 +11532,7 @@
         <v>Mahishnengra Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G384" s="1" t="str">
-        <v>Zone I / Mahishnengra Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H384" s="1" t="str">
         <v>23.393417</v>
@@ -11561,7 +11561,7 @@
         <v>Mahishnengra Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G385" s="1" t="str">
-        <v>Zone II / Mahishnengra Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H385" s="1" t="str">
         <v>23.410216</v>
@@ -11590,7 +11590,7 @@
         <v>Monipota Water Supply Scheme</v>
       </c>
       <c r="G386" s="1" t="str">
-        <v>N/A / Monipota Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H386" s="1" t="str">
         <v>23.354737</v>
@@ -11619,7 +11619,7 @@
         <v>Monipota Water Supply Scheme</v>
       </c>
       <c r="G387" s="1" t="str">
-        <v>N/A / Monipota Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H387" s="1" t="str">
         <v>23.356305</v>
@@ -11648,7 +11648,7 @@
         <v>Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G388" s="1" t="str">
-        <v>Zone I / Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H388" s="1" t="str">
         <v>23.388471</v>
@@ -11677,7 +11677,7 @@
         <v>Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G389" s="1" t="str">
-        <v>Zone I / Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H389" s="1" t="str">
         <v>23.384733</v>
@@ -11706,7 +11706,7 @@
         <v>Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G390" s="1" t="str">
-        <v>Zone I / Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H390" s="1" t="str">
         <v>23.388599</v>
@@ -11735,7 +11735,7 @@
         <v>Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G391" s="1" t="str">
-        <v>Zone II / Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H391" s="1" t="str">
         <v>23.401773</v>
@@ -11764,7 +11764,7 @@
         <v>Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G392" s="1" t="str">
-        <v>Zone II / Paschim Bhatjangla Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H392" s="1" t="str">
         <v>23.401932</v>
@@ -11793,7 +11793,7 @@
         <v>Senpur Water Supply Scheme</v>
       </c>
       <c r="G393" s="1" t="str">
-        <v>N/A / Senpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H393" s="1" t="str">
         <v>23.340428</v>
@@ -11822,7 +11822,7 @@
         <v>Senpur Water Supply Scheme</v>
       </c>
       <c r="G394" s="1" t="str">
-        <v>N/A / Senpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H394" s="1" t="str">
         <v>23.340426</v>
@@ -11851,7 +11851,7 @@
         <v>Senpur Water Supply Scheme</v>
       </c>
       <c r="G395" s="1" t="str">
-        <v>N/A / Senpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H395" s="1" t="str">
         <v>23.341584</v>
@@ -11880,7 +11880,7 @@
         <v>Sonda Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G396" s="1" t="str">
-        <v>Zone I / Sonda Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H396" s="1" t="str">
         <v>23.411624</v>
@@ -11909,7 +11909,7 @@
         <v>Sonda Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G397" s="1" t="str">
-        <v>Zone I / Sonda Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone I</v>
       </c>
       <c r="H397" s="1" t="str">
         <v>23.412389</v>
@@ -11938,7 +11938,7 @@
         <v>Sonda Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G398" s="1" t="str">
-        <v>Zone II / Sonda Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H398" s="1" t="str">
         <v>23.432401</v>
@@ -11967,7 +11967,7 @@
         <v>Sonda Water Supply Scheme (Zone - I &amp; II)</v>
       </c>
       <c r="G399" s="1" t="str">
-        <v>Zone II / Sonda Water Supply Scheme (Zone - I &amp; II)</v>
+        <v>Zone II</v>
       </c>
       <c r="H399" s="1" t="str">
         <v>23.43275</v>
@@ -11996,7 +11996,7 @@
         <v>Subarna Behar Water Supply Scheme</v>
       </c>
       <c r="G400" s="1" t="str">
-        <v>N/A / Subarna Behar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H400" s="1" t="str">
         <v>23.414326</v>
@@ -12025,7 +12025,7 @@
         <v>Subarna Behar Water Supply Scheme</v>
       </c>
       <c r="G401" s="1" t="str">
-        <v>N/A / Subarna Behar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H401" s="1" t="str">
         <v>23.414812</v>
@@ -12054,7 +12054,7 @@
         <v>Subarna Behar Water Supply Scheme</v>
       </c>
       <c r="G402" s="1" t="str">
-        <v>N/A / Subarna Behar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H402" s="1" t="str">
         <v>23.411594</v>
@@ -12083,7 +12083,7 @@
         <v>Subarna Behar Water Supply Scheme</v>
       </c>
       <c r="G403" s="1" t="str">
-        <v>N/A / Subarna Behar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H403" s="1" t="str">
         <v>23.409721</v>
@@ -12112,7 +12112,7 @@
         <v>Subarna Behar Water Supply Scheme</v>
       </c>
       <c r="G404" s="1" t="str">
-        <v>N/A / Subarna Behar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H404" s="1" t="str">
         <v>23.408612</v>
@@ -12141,7 +12141,7 @@
         <v>Banpur Water Supply Scheme</v>
       </c>
       <c r="G405" s="1" t="str">
-        <v>N/A / Banpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H405" s="1" t="str">
         <v>23.452091</v>
@@ -12170,7 +12170,7 @@
         <v>Banpur Water Supply Scheme</v>
       </c>
       <c r="G406" s="1" t="str">
-        <v>N/A / Banpur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H406" s="1" t="str">
         <v>23.451669</v>
@@ -12199,7 +12199,7 @@
         <v>Durgapur Changacha Water Supply Scheme</v>
       </c>
       <c r="G407" s="1" t="str">
-        <v>N/A / Durgapur Changacha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H407" s="1" t="str">
         <v>23.428537</v>
@@ -12228,7 +12228,7 @@
         <v>Durgapur Changacha Water Supply Scheme</v>
       </c>
       <c r="G408" s="1" t="str">
-        <v>N/A / Durgapur Changacha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H408" s="1" t="str">
         <v>23.428631</v>
@@ -12257,7 +12257,7 @@
         <v>Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
       </c>
       <c r="G409" s="1" t="str">
-        <v>Zone I / Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H409" s="1" t="str">
         <v>23.401841</v>
@@ -12286,7 +12286,7 @@
         <v>Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
       </c>
       <c r="G410" s="1" t="str">
-        <v>Zone I / Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
+        <v>Zone I</v>
       </c>
       <c r="H410" s="1" t="str">
         <v>23.410189</v>
@@ -12315,7 +12315,7 @@
         <v>Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
       </c>
       <c r="G411" s="1" t="str">
-        <v>Zone II / Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H411" s="1" t="str">
         <v>23.394569</v>
@@ -12344,7 +12344,7 @@
         <v>Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
       </c>
       <c r="G412" s="1" t="str">
-        <v>Zone II / Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
+        <v>Zone II</v>
       </c>
       <c r="H412" s="1" t="str">
         <v>23.39175</v>
@@ -12373,7 +12373,7 @@
         <v>Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
       </c>
       <c r="G413" s="1" t="str">
-        <v>Zone III / Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
+        <v>Zone III</v>
       </c>
       <c r="H413" s="1" t="str">
         <v>23.383416</v>
@@ -12402,7 +12402,7 @@
         <v>Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
       </c>
       <c r="G414" s="1" t="str">
-        <v>Zone III / Helenchi(Zone-I,II &amp; III) Water Supply Scheme</v>
+        <v>Zone III</v>
       </c>
       <c r="H414" s="1" t="str">
         <v>23.38433</v>
@@ -12431,7 +12431,7 @@
         <v>Joyghata Water Supply Scheme</v>
       </c>
       <c r="G415" s="1" t="str">
-        <v>N/A / Joyghata Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H415" s="1" t="str">
         <v>23.474455</v>
@@ -12460,7 +12460,7 @@
         <v>Joyghata Water Supply Scheme</v>
       </c>
       <c r="G416" s="1" t="str">
-        <v>N/A / Joyghata Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H416" s="1" t="str">
         <v>23.47487</v>
@@ -12489,7 +12489,7 @@
         <v>Kadipur Water Supply Scheme</v>
       </c>
       <c r="G417" s="1" t="str">
-        <v>N/A / Kadipur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H417" s="1" t="str">
         <v>23.500856</v>
@@ -12518,7 +12518,7 @@
         <v>Kadipur Water Supply Scheme</v>
       </c>
       <c r="G418" s="1" t="str">
-        <v>N/A / Kadipur Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H418" s="1" t="str">
         <v>23.496688</v>
@@ -12547,7 +12547,7 @@
         <v>Majhdia Water Supply Scheme</v>
       </c>
       <c r="G419" s="1" t="str">
-        <v>N/A / Majhdia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H419" s="1" t="str">
         <v>23.413265</v>
@@ -12576,7 +12576,7 @@
         <v>Majhdia Water Supply Scheme</v>
       </c>
       <c r="G420" s="1" t="str">
-        <v>N/A / Majhdia Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H420" s="1" t="str">
         <v>23.416631</v>
@@ -12605,7 +12605,7 @@
         <v>Matiari Water Supply Scheme</v>
       </c>
       <c r="G421" s="1" t="str">
-        <v>N/A / Matiari Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H421" s="1" t="str">
         <v>23.454585</v>
@@ -12634,7 +12634,7 @@
         <v>Matiari Water Supply Scheme</v>
       </c>
       <c r="G422" s="1" t="str">
-        <v>N/A / Matiari Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H422" s="1" t="str">
         <v>23.456669</v>
@@ -12663,7 +12663,7 @@
         <v>Sakdaha Water Supply Scheme</v>
       </c>
       <c r="G423" s="1" t="str">
-        <v>N/A / Sakdaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H423" s="1" t="str">
         <v>23.446754</v>
@@ -12692,7 +12692,7 @@
         <v>Sakdaha Water Supply Scheme</v>
       </c>
       <c r="G424" s="1" t="str">
-        <v>N/A / Sakdaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H424" s="1" t="str">
         <v>23.448908</v>
@@ -12721,7 +12721,7 @@
         <v>Shyamnagar Water Supply Scheme</v>
       </c>
       <c r="G425" s="1" t="str">
-        <v>N/A / Shyamnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H425" s="1" t="str">
         <v>23.464754</v>
@@ -12750,7 +12750,7 @@
         <v>Shyamnagar Water Supply Scheme</v>
       </c>
       <c r="G426" s="1" t="str">
-        <v>N/A / Shyamnagar Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H426" s="1" t="str">
         <v>23.457974</v>
@@ -12779,7 +12779,7 @@
         <v>Taldaha Water Supply Scheme</v>
       </c>
       <c r="G427" s="1" t="str">
-        <v>N/A / Taldaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H427" s="1" t="str">
         <v>23.445083</v>
@@ -12808,7 +12808,7 @@
         <v>Taldaha Water Supply Scheme</v>
       </c>
       <c r="G428" s="1" t="str">
-        <v>N/A / Taldaha Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H428" s="1" t="str">
         <v>23.443506</v>
@@ -12837,7 +12837,7 @@
         <v>Tungi Water Supply Scheme</v>
       </c>
       <c r="G429" s="1" t="str">
-        <v>N/A / Tungi Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H429" s="1" t="str">
         <v>23.420195</v>
@@ -12866,7 +12866,7 @@
         <v>Tungi Water Supply Scheme</v>
       </c>
       <c r="G430" s="1" t="str">
-        <v>N/A / Tungi Water Supply Scheme</v>
+        <v>N/A</v>
       </c>
       <c r="H430" s="1" t="str">
         <v>23.420243</v>
